--- a/用例数据/股转/要约收购/预受要约/测试结果.xlsx
+++ b/用例数据/股转/要约收购/预受要约/测试结果.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9066ED11-8DC7-437F-AAD1-272415582817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stklist" sheetId="1" r:id="rId1"/>
@@ -792,7 +793,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1111,14 +1112,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CH21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -2444,7 +2448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2594,17 +2598,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:DA29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4284,11 +4289,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:DD29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
